--- a/contexts.xlsx
+++ b/contexts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xlsx2ixbrl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Update0803\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{229C3EE7-E253-4723-B5C0-8095FB2A992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5AD09AD-19E2-42DF-81F6-6E7C9D7E7008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C582B1-9BB2-47F8-806B-FD28F4931C11}"/>
+    <workbookView xWindow="1305" yWindow="840" windowWidth="21015" windowHeight="11295" xr2:uid="{86C582B1-9BB2-47F8-806B-FD28F4931C11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>Statement</t>
   </si>
@@ -380,6 +380,104 @@
         &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
       &lt;/xbrli:period&gt;
     &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Government-Wide</t>
+  </si>
+  <si>
+    <t>Governmental Funds</t>
+  </si>
+  <si>
+    <t>Proprietary Funds</t>
+  </si>
+  <si>
+    <t>Business-type Activities - Endeavor Hall</t>
+  </si>
+  <si>
+    <t>I20220630_FundIdentifierDomain_EndeavorHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_EndeavorHall"&gt;
+      &lt;xbrli:entity&gt;
+         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;xbrli:segment&gt;
+          &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
+            &lt;acfr:FundIdentifierDomain&gt;Business-type Activities - Endeavor Hall&lt;/acfr:FundIdentifierDomain&gt;
+          &lt;/xbrldi:typedMember&gt;
+        &lt;/xbrli:segment&gt;
+      &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:instant&gt;2022-06-30&lt;/xbrli:instant&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>Governmental Activities - Internal Service Funds</t>
+  </si>
+  <si>
+    <t>I20220630_FundIdentifierDomain_InternalService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_InternalService"&gt;
+      &lt;xbrli:entity&gt;
+         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;xbrli:segment&gt;
+          &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
+            &lt;acfr:FundIdentifierDomain&gt;Governmental Activities - Internal Service Funds&lt;/acfr:FundIdentifierDomain&gt;
+          &lt;/xbrldi:typedMember&gt;
+        &lt;/xbrli:segment&gt;
+      &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:instant&gt;2022-06-30&lt;/xbrli:instant&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>Statement of Revenues, Expenses and Changes in Net Position</t>
+  </si>
+  <si>
+    <t>D20220630_FundIdentifierDomain_EndeavorHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_EndeavorHall"&gt;
+      &lt;xbrli:entity&gt;
+         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;xbrli:segment&gt;
+          &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
+            &lt;acfr:FundIdentifierDomain&gt;Business-type Activities - Endeavor Hall&lt;/acfr:FundIdentifierDomain&gt;
+          &lt;/xbrldi:typedMember&gt;
+        &lt;/xbrli:segment&gt;
+      &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_FundIdentifierDomain_InternalService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_InternalService"&gt;
+      &lt;xbrli:entity&gt;
+         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;xbrli:segment&gt;
+          &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
+            &lt;acfr:FundIdentifierDomain&gt;Governmental Activities - Internal Service Funds&lt;/acfr:FundIdentifierDomain&gt;
+          &lt;/xbrldi:typedMember&gt;
+        &lt;/xbrli:segment&gt;
+      &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>Statement of Cash Flows</t>
   </si>
 </sst>
 </file>
@@ -743,268 +841,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390EAFB-AFE8-4D72-87AB-B103ACE27C28}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="131.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/contexts.xlsx
+++ b/contexts.xlsx
@@ -1,43 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Update0803\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5AD09AD-19E2-42DF-81F6-6E7C9D7E7008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="840" windowWidth="21015" windowHeight="11295" xr2:uid="{86C582B1-9BB2-47F8-806B-FD28F4931C11}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
+    <t>Scope</t>
+  </si>
+  <si>
     <t>Statement</t>
   </si>
   <si>
@@ -50,50 +31,16 @@
     <t>Context_Reference</t>
   </si>
   <si>
+    <t>Government-Wide</t>
+  </si>
+  <si>
     <t>Statement of Net Position</t>
   </si>
   <si>
     <t>Governmental Activities</t>
   </si>
   <si>
-    <t>Business-Type Activites</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
-    <t>General Fund</t>
-  </si>
-  <si>
-    <t>Landscape Maintenance District</t>
-  </si>
-  <si>
-    <t>Successor Housing Agency</t>
-  </si>
-  <si>
-    <t>American Rescue Plan Act</t>
-  </si>
-  <si>
-    <t>Capital Improvement Program</t>
-  </si>
-  <si>
-    <t>Other Governmental Funds</t>
-  </si>
-  <si>
-    <t>Statement of Revenues, Expenditures and Changes in Fund Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;xbrli:context id="I20220630"&gt;
-        &lt;xbrli:entity&gt;
-          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
-        &lt;/xbrli:entity&gt;
-        &lt;xbrli:period&gt;
-          &lt;xbrli:instant&gt;2022-06-30&lt;/xbrli:instant&gt;
-        &lt;/xbrli:period&gt;
-      &lt;/xbrli:context&gt;</t>
+    <t>I20220630_GovernmentalActivities</t>
   </si>
   <si>
     <t xml:space="preserve">      &lt;xbrli:context id="I20220630_GovernmentalActivities"&gt;
@@ -109,6 +56,12 @@
       &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>Business-Type Activites</t>
+  </si>
+  <si>
+    <t>I20220630_BusinessTypeActivities</t>
+  </si>
+  <si>
     <t xml:space="preserve">      &lt;xbrli:context id="I20220630_BusinessTypeActivities"&gt;
         &lt;xbrli:entity&gt;
           &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -122,55 +75,32 @@
       &lt;/xbrli:context&gt;</t>
   </si>
   <si>
-    <t>I20220630_GovernmentalActivities</t>
-  </si>
-  <si>
-    <t>I20220630_BusinessTypeActivities</t>
+    <t>Total</t>
   </si>
   <si>
     <t>I20220630</t>
   </si>
   <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="I20220630"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;/xbrli:entity&gt;
+        &lt;xbrli:period&gt;
+          &lt;xbrli:instant&gt;2022-06-30&lt;/xbrli:instant&gt;
+        &lt;/xbrli:period&gt;
+      &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>Governmental Funds</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>General Fund</t>
+  </si>
+  <si>
     <t>I20220630_GeneralFundMember</t>
-  </si>
-  <si>
-    <t>D20220630_GeneralFundMember</t>
-  </si>
-  <si>
-    <t>I20220630_GovernmentalFundsMember</t>
-  </si>
-  <si>
-    <t>D20220630_GovernmentalFundsMember</t>
-  </si>
-  <si>
-    <t>D20220630_FundIdentifierDomain_Landscape</t>
-  </si>
-  <si>
-    <t>I20220630_FundIdentifierDomain_Landscape</t>
-  </si>
-  <si>
-    <t>I20220630_FundIdentifierDomain_Housing</t>
-  </si>
-  <si>
-    <t>I20220630_FundIdentifierDomain_ARPA</t>
-  </si>
-  <si>
-    <t>I20220630_FundIdentifierDomain_Capital</t>
-  </si>
-  <si>
-    <t>I20220630_FundIdentifierDomain_Other</t>
-  </si>
-  <si>
-    <t>D20220630_FundIdentifierDomain_Housing</t>
-  </si>
-  <si>
-    <t>D20220630_FundIdentifierDomain_ARPA</t>
-  </si>
-  <si>
-    <t>D20220630_FundIdentifierDomain_Capital</t>
-  </si>
-  <si>
-    <t>D20220630_FundIdentifierDomain_Other</t>
   </si>
   <si>
     <t xml:space="preserve">    &lt;xbrli:context id="I20220630_GeneralFundMember"&gt;
@@ -184,6 +114,12 @@
           &lt;xbrli:instant&gt;2022-06-30&lt;/xbrli:instant&gt;
         &lt;/xbrli:period&gt;
       &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>Landscape Maintenance District</t>
+  </si>
+  <si>
+    <t>I20220630_FundIdentifierDomain_Landscape</t>
   </si>
   <si>
     <t xml:space="preserve">    &lt;xbrli:context id="I20220630_FundIdentifierDomain_Landscape"&gt;
@@ -201,6 +137,12 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>Successor Housing Agency</t>
+  </si>
+  <si>
+    <t>I20220630_FundIdentifierDomain_Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="I20220630_FundIdentifierDomain_Housing"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -216,6 +158,12 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>American Rescue Plan Act</t>
+  </si>
+  <si>
+    <t>I20220630_FundIdentifierDomain_ARPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="I20220630_FundIdentifierDomain_ARPA"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -231,6 +179,12 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>Capital Improvement Program</t>
+  </si>
+  <si>
+    <t>I20220630_FundIdentifierDomain_Capital</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="I20220630_FundIdentifierDomain_Capital"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -246,6 +200,12 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>Other Governmental Funds</t>
+  </si>
+  <si>
+    <t>I20220630_FundIdentifierDomain_Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="I20220630_FundIdentifierDomain_Other"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -261,6 +221,9 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>I20220630_GovernmentalFundsMember</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="I20220630_GovernmentalFundsMember"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -272,6 +235,12 @@
         &lt;xbrli:instant&gt;2022-06-30&lt;/xbrli:instant&gt;
       &lt;/xbrli:period&gt;
     &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>Statement of Revenues, Expenditures and Changes in Fund Balance</t>
+  </si>
+  <si>
+    <t>D20220630_GeneralFundMember</t>
   </si>
   <si>
     <t xml:space="preserve">    &lt;xbrli:context id="D20220630_GeneralFundMember"&gt;
@@ -286,6 +255,9 @@
         &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
       &lt;/xbrli:period&gt;
     &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_FundIdentifierDomain_Landscape</t>
   </si>
   <si>
     <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_Landscape"&gt;
@@ -304,6 +276,9 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>D20220630_FundIdentifierDomain_Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_Housing"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -320,6 +295,9 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>D20220630_FundIdentifierDomain_ARPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_ARPA"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -336,6 +314,9 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>D20220630_FundIdentifierDomain_Capital</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_Capital"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -352,6 +333,9 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>D20220630_FundIdentifierDomain_Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_Other"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -368,6 +352,9 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
+    <t>D20220630_GovernmentalFundsMember</t>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xbrli:context id="D20220630_GovernmentalFundsMember"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
@@ -382,15 +369,6 @@
     &lt;/xbrli:context&gt;</t>
   </si>
   <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Government-Wide</t>
-  </si>
-  <si>
-    <t>Governmental Funds</t>
-  </si>
-  <si>
     <t>Proprietary Funds</t>
   </si>
   <si>
@@ -400,7 +378,7 @@
     <t>I20220630_FundIdentifierDomain_EndeavorHall</t>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_EndeavorHall"&gt;
+    <t xml:space="preserve">    &lt;xbrli:context id="I20220630_FundIdentifierDomain_EndeavorHall"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
         &lt;xbrli:segment&gt;
@@ -421,7 +399,7 @@
     <t>I20220630_FundIdentifierDomain_InternalService</t>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_FundIdentifierDomain_InternalService"&gt;
+    <t xml:space="preserve">    &lt;xbrli:context id="I20220630_FundIdentifierDomain_InternalService"&gt;
       &lt;xbrli:entity&gt;
          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
         &lt;xbrli:segment&gt;
@@ -483,31 +461,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -515,9 +836,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -528,17 +1091,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -587,7 +1194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -620,26 +1227,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -672,23 +1262,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -830,344 +1403,339 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B390EAFB-AFE8-4D72-87AB-B103ACE27C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="131.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="29.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="49.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="131.285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="165" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="165" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="123" customHeight="1" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="165" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="195" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="195" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="195" spans="1:5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="195" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="195" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="165" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="180" spans="1:5">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="210" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="210" spans="1:5">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="210" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="16" ht="210" spans="1:5">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="210" spans="1:5">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="180" spans="1:5">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" ht="195" spans="1:5">
       <c r="A19" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>54</v>
@@ -1179,12 +1747,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="20" ht="195" spans="1:5">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>57</v>
@@ -1196,7 +1764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="21" ht="210" spans="1:5">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1213,7 +1781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="22" ht="210" spans="1:5">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1230,7 +1798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="23" ht="210" spans="1:5">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1247,7 +1815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="24" ht="210" spans="1:5">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1266,5 +1834,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/contexts.xlsx
+++ b/contexts.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>Scope</t>
   </si>
@@ -457,18 +458,310 @@
   <si>
     <t>Statement of Cash Flows</t>
   </si>
+  <si>
+    <t>Statement of Activities</t>
+  </si>
+  <si>
+    <t>D20220630_GovernmentalActivities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_GovernmentalActivities"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:GovernmentalActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_BusinessTypeActivities"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:BusinessTypeActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_GovernmentalActivities_ChargesForServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_GovernmentalActivities_ChargesForServices"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromChargesForServicesMember&lt;/xbrldi:explicitMember&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:GovernmentalActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_GovernmentalActivities_OperatingGrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_GovernmentalActivities_OperatingGrants"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromOperatingGrantsAndContributionsMember&lt;/xbrldi:explicitMember&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:GovernmentalActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_GovernmentalActivities_CapitalGrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_GovernmentalActivities_CapitalGrants"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromCapitalGrantsAndContributionsMember&lt;/xbrldi:explicitMember&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:GovernmentalActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_EndeavorHall_ChargesForServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_BusinessTypeActivities_EndeavorHall_ChargesForServices"&gt;
+      &lt;xbrli:entity&gt;
+         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;xbrli:segment&gt;
+          &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromChargesForServicesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
+            &lt;acfr:FundIdentifierDomain&gt;Business-type Activities - Endeavor Hall&lt;/acfr:FundIdentifierDomain&gt;
+          &lt;/xbrldi:typedMember&gt;
+        &lt;/xbrli:segment&gt;
+      &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_EndeavorHall_OperatingGrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_BusinessTypeActivities_EndeavorHall_OperatingGrants"&gt;
+      &lt;xbrli:entity&gt;
+         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;xbrli:segment&gt;
+          &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromOperatingGrantsAndContributionsMember&lt;/xbrldi:explicitMember&gt;
+           &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
+            &lt;acfr:FundIdentifierDomain&gt;Business-type Activities - Endeavor Hall&lt;/acfr:FundIdentifierDomain&gt;
+          &lt;/xbrldi:typedMember&gt;
+        &lt;/xbrli:segment&gt;
+       &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_EndeavorHall_CapitalGrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_BusinessTypeActivities_EndeavorHall_CapitalGrants"&gt;
+      &lt;xbrli:entity&gt;
+         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;xbrli:segment&gt;
+          &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromCapitalGrantsAndContributionsMember&lt;/xbrldi:explicitMember&gt;
+          &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
+            &lt;acfr:FundIdentifierDomain&gt;Business-type Activities - Endeavor Hall&lt;/acfr:FundIdentifierDomain&gt;
+          &lt;/xbrldi:typedMember&gt;
+        &lt;/xbrli:segment&gt;
+       &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_ChargesForServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_BusinessTypeActivities_ChargesForServices"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromChargesForServicesMember&lt;/xbrldi:explicitMember&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:BusinessTypeActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_OperatingGrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_BusinessTypeActivities_OperatingGrants"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromOperatingGrantsAndContributionsMember&lt;/xbrldi:explicitMember&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:BusinessTypeActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_CapitalGrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_BusinessTypeActivities_CapitalGrants"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromCapitalGrantsAndContributionsMember&lt;/xbrldi:explicitMember&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:BusinessTypeActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_ChargesForServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_ChargesForServices"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:BusinessTypeActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_OperatingGrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_OperatingGrants"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+                &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:BusinessTypeActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_CapitalGrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;xbrli:context id="D20220630_CapitalGrants"&gt;
+        &lt;xbrli:entity&gt;
+          &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+          &lt;xbrli:segment&gt;
+            &lt;xbrldi:explicitMember dimension="acfr:TypeOfGovernmentUnitAxis"&gt;acfr:BusinessTypeActivitiesMember&lt;/xbrldi:explicitMember&gt;
+          &lt;/xbrli:segment&gt;
+        &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_EndeavorHall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +771,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,24 +799,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,31 +816,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,16 +838,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,8 +866,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,30 +912,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,187 +928,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,11 +1128,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,8 +1155,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,6 +1202,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -919,179 +1225,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1124,23 +1423,24 @@
     <cellStyle name="Bad" xfId="29" builtinId="27"/>
     <cellStyle name="Neutral" xfId="30" builtinId="28"/>
     <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1409,19 +1709,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="23.8190476190476" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="29.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="49.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="131.285714285714" customWidth="1"/>
+    <col min="3" max="3" width="29.4571428571429" customWidth="1"/>
+    <col min="4" max="4" width="59.8190476190476" customWidth="1"/>
+    <col min="5" max="5" width="145.819047619048" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1448,13 +1748,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1465,13 +1765,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1482,13 +1782,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1505,7 +1805,7 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1522,7 +1822,7 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1539,7 +1839,7 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1556,7 +1856,7 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1573,7 +1873,7 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1590,7 +1890,7 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1607,7 +1907,7 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1624,7 +1924,7 @@
       <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1641,7 +1941,7 @@
       <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1658,7 +1958,7 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1675,7 +1975,7 @@
       <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1692,7 +1992,7 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1709,7 +2009,7 @@
       <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1726,7 +2026,7 @@
       <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1737,13 +2037,13 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1754,13 +2054,13 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1771,13 +2071,13 @@
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1788,13 +2088,13 @@
       <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1805,13 +2105,13 @@
       <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1822,14 +2122,318 @@
       <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="25" ht="180" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="180" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" ht="135" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" ht="195" spans="1:5">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" ht="210" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" ht="210" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" ht="225" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" ht="240" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" ht="240" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" ht="195" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" ht="210" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" ht="210" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" ht="180" spans="1:5">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" ht="180" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" ht="180" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.8190476190476" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/contexts.xlsx
+++ b/contexts.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aug05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2106EA49-A5E9-42E4-904A-071DC7F1034B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
   <si>
     <t>Scope</t>
   </si>
@@ -567,23 +573,6 @@
     <t>D20220630_BusinessTypeActivities_EndeavorHall_ChargesForServices</t>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_BusinessTypeActivities_EndeavorHall_ChargesForServices"&gt;
-      &lt;xbrli:entity&gt;
-         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
-        &lt;xbrli:segment&gt;
-          &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromChargesForServicesMember&lt;/xbrldi:explicitMember&gt;
-          &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
-            &lt;acfr:FundIdentifierDomain&gt;Business-type Activities - Endeavor Hall&lt;/acfr:FundIdentifierDomain&gt;
-          &lt;/xbrldi:typedMember&gt;
-        &lt;/xbrli:segment&gt;
-      &lt;/xbrli:entity&gt;
-      &lt;xbrli:period&gt;
-        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
-        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
-      &lt;/xbrli:period&gt;
-    &lt;/xbrli:context&gt;</t>
-  </si>
-  <si>
     <t>D20220630_BusinessTypeActivities_EndeavorHall_OperatingGrants</t>
   </si>
   <si>
@@ -731,37 +720,29 @@
   <si>
     <t>D20220630_BusinessTypeActivities_EndeavorHall</t>
   </si>
+  <si>
+    <t xml:space="preserve">    &lt;xbrli:context id="D20220630_BusinessTypeActivities_EndeavorHall_ChargesForServices"&gt;
+      &lt;xbrli:entity&gt;
+         &lt;xbrli:identifier scheme="https://www2.census.gov/geo/docs/reference/codes2020/national_place2020.txt"&gt;$place_id$&lt;/xbrli:identifier&gt;
+        &lt;xbrli:segment&gt;
+          &lt;xbrldi:explicitMember dimension="acfr:TypeOfProgramRevenuesAxis"&gt;acfr:ProgramRevenuesFromChargesForServicesMember&lt;/xbrldi:explicitMember&gt;
+           &lt;xbrldi:typedMember dimension="acfr:FundIdentifierAxis"&gt;
+            &lt;acfr:FundIdentifierDomain&gt;Business-type Activities - Endeavor Hall&lt;/acfr:FundIdentifierDomain&gt;
+          &lt;/xbrldi:typedMember&gt;
+        &lt;/xbrli:segment&gt;
+      &lt;/xbrli:entity&gt;
+      &lt;xbrli:period&gt;
+        &lt;xbrli:startDate&gt;2021-07-01&lt;/xbrli:startDate&gt;
+        &lt;xbrli:endDate&gt;2022-06-30&lt;/xbrli:endDate&gt;
+      &lt;/xbrli:period&gt;
+    &lt;/xbrli:context&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,155 +752,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -932,194 +795,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1127,325 +804,43 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1703,25 +1098,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.8190476190476" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="29.4571428571429" customWidth="1"/>
-    <col min="4" max="4" width="59.8190476190476" customWidth="1"/>
-    <col min="5" max="5" width="145.819047619048" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" customWidth="1"/>
+    <col min="5" max="5" width="145.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1741,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="165" spans="1:5">
+    <row r="2" spans="1:5" ht="165">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="165" spans="1:5">
+    <row r="3" spans="1:5" ht="165">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="123" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="123" customHeight="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="165" spans="1:5">
+    <row r="5" spans="1:5" ht="165">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1809,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="195" spans="1:5">
+    <row r="6" spans="1:5" ht="195">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="195" spans="1:5">
+    <row r="7" spans="1:5" ht="195">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1843,7 +1238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="195" spans="1:5">
+    <row r="8" spans="1:5" ht="195">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="195" spans="1:5">
+    <row r="9" spans="1:5" ht="195">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1877,7 +1272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="195" spans="1:5">
+    <row r="10" spans="1:5" ht="195">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1894,7 +1289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="165" spans="1:5">
+    <row r="11" spans="1:5" ht="165">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="180" spans="1:5">
+    <row r="12" spans="1:5" ht="180">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1928,7 +1323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" ht="210" spans="1:5">
+    <row r="13" spans="1:5" ht="210">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="210" spans="1:5">
+    <row r="14" spans="1:5" ht="210">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="210" spans="1:5">
+    <row r="15" spans="1:5" ht="210">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" ht="210" spans="1:5">
+    <row r="16" spans="1:5" ht="210">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1996,7 +1391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="210" spans="1:5">
+    <row r="17" spans="1:5" ht="210">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2013,7 +1408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="180" spans="1:5">
+    <row r="18" spans="1:5" ht="180">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +1425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" ht="195" spans="1:5">
+    <row r="19" spans="1:5" ht="195">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2047,7 +1442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="195" spans="1:5">
+    <row r="20" spans="1:5" ht="195">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +1459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" ht="210" spans="1:5">
+    <row r="21" spans="1:5" ht="210">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2081,7 +1476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="210" spans="1:5">
+    <row r="22" spans="1:5" ht="210">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2098,7 +1493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" ht="210" spans="1:5">
+    <row r="23" spans="1:5" ht="210">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2115,7 +1510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" ht="210" spans="1:5">
+    <row r="24" spans="1:5" ht="210">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2132,7 +1527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" ht="180" spans="1:5">
+    <row r="25" spans="1:5" ht="180">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +1544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" ht="180" spans="1:5">
+    <row r="26" spans="1:5" ht="180">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +1561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" ht="135" spans="1:5">
+    <row r="27" spans="1:5" ht="135">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +1578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" ht="195" spans="1:5">
+    <row r="28" spans="1:5" ht="210">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +1592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" ht="210" spans="1:5">
+    <row r="29" spans="1:5" ht="210">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2211,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" ht="210" spans="1:5">
+    <row r="30" spans="1:5" ht="210">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2225,21 +1620,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" ht="225" spans="1:5">
+    <row r="31" spans="1:5" ht="210">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" ht="240" spans="1:5">
+      <c r="D31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="240">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2247,13 +1642,13 @@
         <v>66</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" ht="240" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="240">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2261,27 +1656,27 @@
         <v>66</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" ht="195" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="240">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D34" t="s">
-        <v>85</v>
+      <c r="D34" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" ht="210" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="210">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2289,13 +1684,13 @@
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" ht="210" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="210">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2303,13 +1698,13 @@
         <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" ht="180" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="210">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2317,13 +1712,13 @@
         <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" ht="180" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="180">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2331,13 +1726,13 @@
         <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" ht="180" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="180">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2345,30 +1740,42 @@
         <v>66</v>
       </c>
       <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="180">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A13"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.8190476190476" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2388,7 +1795,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2398,46 +1805,45 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/contexts.xlsx
+++ b/contexts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aug05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2106EA49-A5E9-42E4-904A-071DC7F1034B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0950D10-B10B-2A46-90D7-9696C4EA98D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,20 +1106,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="59.85546875" customWidth="1"/>
-    <col min="5" max="5" width="145.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="59.83203125" customWidth="1"/>
+    <col min="5" max="5" width="145.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="165">
+    <row r="2" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1146,14 +1146,14 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="165">
+    <row r="3" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="123" customHeight="1">
+    <row r="4" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="165">
+    <row r="5" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="195">
+    <row r="6" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="195">
+    <row r="7" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="195">
+    <row r="8" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="195">
+    <row r="9" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="195">
+    <row r="10" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="165">
+    <row r="11" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="180">
+    <row r="12" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="210">
+    <row r="13" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="210">
+    <row r="14" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="210">
+    <row r="15" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="210">
+    <row r="16" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="210">
+    <row r="17" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="180">
+    <row r="18" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="195">
+    <row r="19" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="195">
+    <row r="20" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="210">
+    <row r="21" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="210">
+    <row r="22" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="210">
+    <row r="23" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="210">
+    <row r="24" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="180">
+    <row r="25" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="180">
+    <row r="26" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="135">
+    <row r="27" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="210">
+    <row r="28" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="210">
+    <row r="29" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="210">
+    <row r="30" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="210">
+    <row r="31" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="240">
+    <row r="32" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="240">
+    <row r="33" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="240">
+    <row r="34" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="210">
+    <row r="35" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="210">
+    <row r="36" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="210">
+    <row r="37" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="180">
+    <row r="38" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="180">
+    <row r="39" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="180">
+    <row r="40" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1773,72 +1773,72 @@
       <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
